--- a/biology/Zoologie/Conus_fosteri/Conus_fosteri.xlsx
+++ b/biology/Zoologie/Conus_fosteri/Conus_fosteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus fosteri est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus fosteri a été décrite pour la première fois en 1942 par les malacologistes William James Clench et Carlos Aguayo y Castro (d) (1899-1982) dans « Johnsonia. »[1],[2].
-Synonymes
-Conasprelloides villepinii fosteri (Clench &amp; Aguayo, 1942) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fosteri a été décrite pour la première fois en 1942 par les malacologistes William James Clench et Carlos Aguayo y Castro (d) (1899-1982) dans « Johnsonia. »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_fosteri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fosteri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conasprelloides villepinii fosteri (Clench &amp; Aguayo, 1942) · non accepté
 Conus fosteri f. hunti Wils &amp; Moolenbeek, 1979 · non accepté
 Conus hunti Wils &amp; Moolenbeek, 1979 · non accepté
 Conus villepinii fosteri Clench &amp; Aguayo, 1942 · non accepté</t>
